--- a/Code/Results/Cases/Case_1_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.57539829386265</v>
+        <v>16.02346907382236</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.718564427744432</v>
+        <v>10.95531719642747</v>
       </c>
       <c r="E2">
-        <v>10.46987937138752</v>
+        <v>17.36141455613541</v>
       </c>
       <c r="F2">
-        <v>21.26507562255015</v>
+        <v>32.85759418847496</v>
       </c>
       <c r="G2">
-        <v>22.99256002557506</v>
+        <v>32.71920215212118</v>
       </c>
       <c r="H2">
-        <v>9.215225808817854</v>
+        <v>15.38509129843432</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.476460052785288</v>
+        <v>12.20774103681907</v>
       </c>
       <c r="K2">
-        <v>12.16598351879561</v>
+        <v>8.695547329368882</v>
       </c>
       <c r="L2">
-        <v>5.468057165134297</v>
+        <v>8.241448496448983</v>
       </c>
       <c r="M2">
-        <v>9.726827627046525</v>
+        <v>14.90628147891183</v>
       </c>
       <c r="N2">
-        <v>13.80476442505041</v>
+        <v>21.0548770987178</v>
       </c>
       <c r="O2">
-        <v>15.05100859624337</v>
+        <v>23.92663729342057</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.02904950275709</v>
+        <v>15.94057154318303</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.669463304736172</v>
+        <v>10.96875836165673</v>
       </c>
       <c r="E3">
-        <v>10.56070673685339</v>
+        <v>17.40444044114252</v>
       </c>
       <c r="F3">
-        <v>21.17054145367468</v>
+        <v>32.93386660921899</v>
       </c>
       <c r="G3">
-        <v>22.73823094962508</v>
+        <v>32.78507376946699</v>
       </c>
       <c r="H3">
-        <v>9.262677696433659</v>
+        <v>15.42538691167375</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.533635232413468</v>
+        <v>12.22902463626174</v>
       </c>
       <c r="K3">
-        <v>11.57215554204473</v>
+        <v>8.416329389905506</v>
       </c>
       <c r="L3">
-        <v>5.26562510226719</v>
+        <v>8.215499193498864</v>
       </c>
       <c r="M3">
-        <v>9.445783798678024</v>
+        <v>14.88137961979276</v>
       </c>
       <c r="N3">
-        <v>13.98109786957657</v>
+        <v>21.1109693197901</v>
       </c>
       <c r="O3">
-        <v>15.05738105387523</v>
+        <v>23.99123736773323</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68506500761285</v>
+        <v>15.89210916243093</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.641746867108794</v>
+        <v>10.97834967378302</v>
       </c>
       <c r="E4">
-        <v>10.61959473731844</v>
+        <v>17.43249614580302</v>
       </c>
       <c r="F4">
-        <v>21.12666422045335</v>
+        <v>32.98674443285262</v>
       </c>
       <c r="G4">
-        <v>22.60089985978116</v>
+        <v>32.83345956070339</v>
       </c>
       <c r="H4">
-        <v>9.296269497282534</v>
+        <v>15.45211269182258</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.569948487768229</v>
+        <v>12.24278897442126</v>
       </c>
       <c r="K4">
-        <v>11.19059361865554</v>
+        <v>8.238516468244214</v>
       </c>
       <c r="L4">
-        <v>5.138390574579701</v>
+        <v>8.200297823639966</v>
       </c>
       <c r="M4">
-        <v>9.271747786152686</v>
+        <v>14.86779089872029</v>
       </c>
       <c r="N4">
-        <v>14.0922689818004</v>
+        <v>21.14710512716267</v>
       </c>
       <c r="O4">
-        <v>15.07113664984729</v>
+        <v>24.03495031608647</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.54295223475951</v>
+        <v>15.872989244053</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.631066343045247</v>
+        <v>10.98259533587075</v>
       </c>
       <c r="E5">
-        <v>10.64437173612231</v>
+        <v>17.44434176638642</v>
       </c>
       <c r="F5">
-        <v>21.11227096198077</v>
+        <v>33.00981201436617</v>
       </c>
       <c r="G5">
-        <v>22.54960324717459</v>
+        <v>32.85517022022483</v>
       </c>
       <c r="H5">
-        <v>9.311050287545152</v>
+        <v>15.4635029815653</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.585053351189555</v>
+        <v>12.24857358609922</v>
       </c>
       <c r="K5">
-        <v>11.03094438571203</v>
+        <v>8.164521644710772</v>
       </c>
       <c r="L5">
-        <v>5.08587535575951</v>
+        <v>8.194290828911232</v>
       </c>
       <c r="M5">
-        <v>9.200558390257838</v>
+        <v>14.86268523267548</v>
       </c>
       <c r="N5">
-        <v>14.13831425442658</v>
+        <v>21.16225813344377</v>
       </c>
       <c r="O5">
-        <v>15.07914483793749</v>
+        <v>24.05378121486026</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.51924414370075</v>
+        <v>15.86985283377998</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.629329998445104</v>
+        <v>10.98332070249145</v>
       </c>
       <c r="E6">
-        <v>10.64853289497897</v>
+        <v>17.44633367472531</v>
       </c>
       <c r="F6">
-        <v>21.11008927013618</v>
+        <v>33.01373410807165</v>
       </c>
       <c r="G6">
-        <v>22.5413650854489</v>
+        <v>32.85889551773839</v>
       </c>
       <c r="H6">
-        <v>9.313569750902142</v>
+        <v>15.46542449965912</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.587580134126959</v>
+        <v>12.24954473249664</v>
       </c>
       <c r="K6">
-        <v>11.00418690690914</v>
+        <v>8.152144284769635</v>
       </c>
       <c r="L6">
-        <v>5.077117302054973</v>
+        <v>8.193304813555407</v>
       </c>
       <c r="M6">
-        <v>9.188724345628993</v>
+        <v>14.8618636381146</v>
       </c>
       <c r="N6">
-        <v>14.14600521944464</v>
+        <v>21.16480012497393</v>
       </c>
       <c r="O6">
-        <v>15.08061757517957</v>
+        <v>24.05696951272176</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.6831559718387</v>
+        <v>15.89184873751158</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.641600336483545</v>
+        <v>10.97840556651689</v>
       </c>
       <c r="E7">
-        <v>10.61992573778819</v>
+        <v>17.43265422780364</v>
       </c>
       <c r="F7">
-        <v>21.12645609258651</v>
+        <v>32.98704937954252</v>
       </c>
       <c r="G7">
-        <v>22.60018925980517</v>
+        <v>32.83374429363049</v>
       </c>
       <c r="H7">
-        <v>9.2964644525058</v>
+        <v>15.45226428301136</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.57015095023332</v>
+        <v>12.24286627634429</v>
       </c>
       <c r="K7">
-        <v>11.18845722565434</v>
+        <v>8.237524667383671</v>
       </c>
       <c r="L7">
-        <v>5.137684930648855</v>
+        <v>8.200216046469629</v>
       </c>
       <c r="M7">
-        <v>9.27078864786273</v>
+        <v>14.8677202881584</v>
       </c>
       <c r="N7">
-        <v>14.09288694323716</v>
+        <v>21.14730775394901</v>
       </c>
       <c r="O7">
-        <v>15.07123501894662</v>
+        <v>24.03520015691135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.38890258126326</v>
+        <v>15.99439008756526</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.701131542383735</v>
+        <v>10.95967428535277</v>
       </c>
       <c r="E8">
-        <v>10.50054616446352</v>
+        <v>17.3759105291</v>
       </c>
       <c r="F8">
-        <v>21.22949627487892</v>
+        <v>32.88263750761137</v>
       </c>
       <c r="G8">
-        <v>22.90092362985813</v>
+        <v>32.74026466244997</v>
       </c>
       <c r="H8">
-        <v>9.230644816014246</v>
+        <v>15.39857366373769</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.495925456860776</v>
+        <v>12.21493543533012</v>
       </c>
       <c r="K8">
-        <v>11.96480480261065</v>
+        <v>8.600634000427373</v>
       </c>
       <c r="L8">
-        <v>5.398910490261335</v>
+        <v>8.232351604151596</v>
       </c>
       <c r="M8">
-        <v>9.630289134916879</v>
+        <v>14.8973447678994</v>
       </c>
       <c r="N8">
-        <v>13.86496960864199</v>
+        <v>21.07386660933665</v>
       </c>
       <c r="O8">
-        <v>15.05111964130308</v>
+        <v>23.94807093519616</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.69744860771003</v>
+        <v>16.21406816514233</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.837003644556602</v>
+        <v>10.93353555256661</v>
       </c>
       <c r="E9">
-        <v>10.29143000434763</v>
+        <v>17.27758964607088</v>
       </c>
       <c r="F9">
-        <v>21.54704285857479</v>
+        <v>32.72589688318653</v>
       </c>
       <c r="G9">
-        <v>23.64232088389589</v>
+        <v>32.62009325224378</v>
       </c>
       <c r="H9">
-        <v>9.138261411647566</v>
+        <v>15.30901178976371</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.359795500889289</v>
+        <v>12.16566426423333</v>
       </c>
       <c r="K9">
-        <v>13.34919057869232</v>
+        <v>9.259496940457938</v>
       </c>
       <c r="L9">
-        <v>5.958365383255546</v>
+        <v>8.301005715987928</v>
       </c>
       <c r="M9">
-        <v>10.31940595210986</v>
+        <v>14.96874819267278</v>
       </c>
       <c r="N9">
-        <v>13.44045799625418</v>
+        <v>20.9432438158352</v>
       </c>
       <c r="O9">
-        <v>15.09296025910848</v>
+        <v>23.80935028149906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.60414700721221</v>
+        <v>16.38576059111344</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.948210943011411</v>
+        <v>10.92075283993218</v>
       </c>
       <c r="E10">
-        <v>10.1533787184317</v>
+        <v>17.21319363063759</v>
       </c>
       <c r="F10">
-        <v>21.8545197908611</v>
+        <v>32.64004953890168</v>
       </c>
       <c r="G10">
-        <v>24.28158098434548</v>
+        <v>32.57045182493779</v>
       </c>
       <c r="H10">
-        <v>9.094651120265565</v>
+        <v>15.25277282049056</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.265303558575778</v>
+        <v>12.13278703542827</v>
       </c>
       <c r="K10">
-        <v>14.27854636364945</v>
+        <v>9.70805331768481</v>
       </c>
       <c r="L10">
-        <v>6.375398024747072</v>
+        <v>8.354648766063153</v>
       </c>
       <c r="M10">
-        <v>10.81095506828319</v>
+        <v>15.02905894881387</v>
       </c>
       <c r="N10">
-        <v>13.14138862811851</v>
+        <v>20.85536515964304</v>
       </c>
       <c r="O10">
-        <v>15.17752508746589</v>
+        <v>23.72704835238798</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.00335306457501</v>
+        <v>16.46586882422807</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.001196198780669</v>
+        <v>10.91632344295565</v>
       </c>
       <c r="E11">
-        <v>10.09404848754864</v>
+        <v>17.18558876786279</v>
       </c>
       <c r="F11">
-        <v>22.01118190489437</v>
+        <v>32.6073645187871</v>
       </c>
       <c r="G11">
-        <v>24.59310906565632</v>
+        <v>32.55628079206939</v>
       </c>
       <c r="H11">
-        <v>9.080509767310001</v>
+        <v>15.22925939133684</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.223465553568341</v>
+        <v>12.11854507939742</v>
       </c>
       <c r="K11">
-        <v>14.68178908357461</v>
+        <v>9.903867654680463</v>
       </c>
       <c r="L11">
-        <v>6.556431326790523</v>
+        <v>8.379695537329344</v>
       </c>
       <c r="M11">
-        <v>11.03044897639291</v>
+        <v>15.05813985836389</v>
       </c>
       <c r="N11">
-        <v>13.00792308578143</v>
+        <v>20.81712735329164</v>
       </c>
       <c r="O11">
-        <v>15.22856407576437</v>
+        <v>23.69387028426747</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.15252463202941</v>
+        <v>16.49647142257204</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.021597270025581</v>
+        <v>10.91484458133261</v>
       </c>
       <c r="E12">
-        <v>10.07208910099559</v>
+        <v>17.17537753614275</v>
       </c>
       <c r="F12">
-        <v>22.07296602381533</v>
+        <v>32.59590316193403</v>
       </c>
       <c r="G12">
-        <v>24.71405482637612</v>
+        <v>32.55212451298203</v>
       </c>
       <c r="H12">
-        <v>9.076010915126375</v>
+        <v>15.22065273269667</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.207783349591873</v>
+        <v>12.11325420347826</v>
       </c>
       <c r="K12">
-        <v>14.83165152151095</v>
+        <v>9.976795322891725</v>
       </c>
       <c r="L12">
-        <v>6.623724988073842</v>
+        <v>8.389268104690489</v>
       </c>
       <c r="M12">
-        <v>11.11290725462786</v>
+        <v>15.06938308937035</v>
       </c>
       <c r="N12">
-        <v>12.95773827656831</v>
+        <v>20.8028965143047</v>
       </c>
       <c r="O12">
-        <v>15.24976805844185</v>
+        <v>23.68191962121626</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.12048807789234</v>
+        <v>16.48986905186797</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.017188690673986</v>
+        <v>10.91515426725191</v>
       </c>
       <c r="E13">
-        <v>10.07679572141627</v>
+        <v>17.17756595102301</v>
       </c>
       <c r="F13">
-        <v>22.05954965863891</v>
+        <v>32.59833084246052</v>
       </c>
       <c r="G13">
-        <v>24.68787474183769</v>
+        <v>32.55296582791607</v>
       </c>
       <c r="H13">
-        <v>9.076941145002163</v>
+        <v>15.22249310984044</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.211153699649427</v>
+        <v>12.1143891478754</v>
       </c>
       <c r="K13">
-        <v>14.79950249849609</v>
+        <v>9.961144001274013</v>
       </c>
       <c r="L13">
-        <v>6.609288268572174</v>
+        <v>8.387202648434446</v>
       </c>
       <c r="M13">
-        <v>11.09517870887731</v>
+        <v>15.06695148051108</v>
       </c>
       <c r="N13">
-        <v>12.96853090968222</v>
+        <v>20.80595032247434</v>
       </c>
       <c r="O13">
-        <v>15.24511686154814</v>
+        <v>23.68446613548235</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.01566603666743</v>
+        <v>16.46838128140795</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.002867906270629</v>
+        <v>10.91619780342979</v>
       </c>
       <c r="E14">
-        <v>10.09223164820054</v>
+        <v>17.18474383543263</v>
       </c>
       <c r="F14">
-        <v>22.01621538923815</v>
+        <v>32.60640323316749</v>
       </c>
       <c r="G14">
-        <v>24.60299973596294</v>
+        <v>32.55591460248612</v>
       </c>
       <c r="H14">
-        <v>9.080122269561883</v>
+        <v>15.22854535836003</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.222172166959849</v>
+        <v>12.11810774922413</v>
       </c>
       <c r="K14">
-        <v>14.69417534468083</v>
+        <v>9.909892172340477</v>
       </c>
       <c r="L14">
-        <v>6.561992917790029</v>
+        <v>8.380481344157001</v>
       </c>
       <c r="M14">
-        <v>11.03724644271612</v>
+        <v>15.05906025091609</v>
       </c>
       <c r="N14">
-        <v>13.0037873146323</v>
+        <v>20.81595158933418</v>
       </c>
       <c r="O14">
-        <v>15.23027054196998</v>
+        <v>23.6928748058183</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95119669793053</v>
+        <v>16.45525359144063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.994139617526633</v>
+        <v>10.9168628201666</v>
       </c>
       <c r="E15">
-        <v>10.10175298622689</v>
+        <v>17.18917200659821</v>
       </c>
       <c r="F15">
-        <v>21.98999345198094</v>
+        <v>32.61146706307925</v>
       </c>
       <c r="G15">
-        <v>24.55139876698427</v>
+        <v>32.55787838929302</v>
       </c>
       <c r="H15">
-        <v>9.082183414187067</v>
+        <v>15.2322912525512</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.228942135325664</v>
+        <v>12.12039880216958</v>
       </c>
       <c r="K15">
-        <v>14.62928927773581</v>
+        <v>9.878338615402214</v>
       </c>
       <c r="L15">
-        <v>6.532858810482242</v>
+        <v>8.376375655496197</v>
       </c>
       <c r="M15">
-        <v>11.00167351706774</v>
+        <v>15.05425654608491</v>
       </c>
       <c r="N15">
-        <v>13.02542872703353</v>
+        <v>20.82211004948674</v>
       </c>
       <c r="O15">
-        <v>15.22142314725858</v>
+        <v>23.6981052187301</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.57778287701436</v>
+        <v>16.38056388835792</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.944795791996178</v>
+        <v>10.921070125947</v>
       </c>
       <c r="E16">
-        <v>10.15732664001156</v>
+        <v>17.21503159804152</v>
       </c>
       <c r="F16">
-        <v>21.84462340368048</v>
+        <v>32.64231372633123</v>
       </c>
       <c r="G16">
-        <v>24.2616388477119</v>
+        <v>32.57154724561327</v>
       </c>
       <c r="H16">
-        <v>9.095693063307667</v>
+        <v>15.25435110647342</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.268060511335003</v>
+        <v>12.13373211199405</v>
       </c>
       <c r="K16">
-        <v>14.2517978983917</v>
+        <v>9.695087246039339</v>
       </c>
       <c r="L16">
-        <v>6.363391351386865</v>
+        <v>8.353024461795609</v>
       </c>
       <c r="M16">
-        <v>10.79652187756955</v>
+        <v>15.02719107034351</v>
       </c>
       <c r="N16">
-        <v>13.15016155707066</v>
+        <v>20.85789898808529</v>
       </c>
       <c r="O16">
-        <v>15.17444846443802</v>
+        <v>23.72930240135379</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.34523885885362</v>
+        <v>16.33524283900412</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.915133305022087</v>
+        <v>10.92400549597116</v>
       </c>
       <c r="E17">
-        <v>10.19231397455831</v>
+        <v>17.23132771195243</v>
       </c>
       <c r="F17">
-        <v>21.75977784608178</v>
+        <v>32.66286816116692</v>
       </c>
       <c r="G17">
-        <v>24.08918923816538</v>
+        <v>32.58208750204887</v>
       </c>
       <c r="H17">
-        <v>9.105465893494426</v>
+        <v>15.26841407278757</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.292349316730608</v>
+        <v>12.14209424122929</v>
       </c>
       <c r="K17">
-        <v>14.01519445884119</v>
+        <v>9.580529961772086</v>
       </c>
       <c r="L17">
-        <v>6.257196321973963</v>
+        <v>8.33886093261709</v>
       </c>
       <c r="M17">
-        <v>10.6695636692158</v>
+        <v>15.01100470355719</v>
       </c>
       <c r="N17">
-        <v>13.22733160712499</v>
+        <v>20.88029891558946</v>
       </c>
       <c r="O17">
-        <v>15.14890032895223</v>
+        <v>23.74953260972945</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21024240995754</v>
+        <v>16.30936532097521</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.898298310001594</v>
+        <v>10.92582430485263</v>
       </c>
       <c r="E18">
-        <v>10.21276380944346</v>
+        <v>17.24085984769282</v>
       </c>
       <c r="F18">
-        <v>21.71255489655231</v>
+        <v>32.67528986259555</v>
       </c>
       <c r="G18">
-        <v>23.99195241250701</v>
+        <v>32.58894168874856</v>
       </c>
       <c r="H18">
-        <v>9.111620934104428</v>
+        <v>15.27669757110407</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.306427788031685</v>
+        <v>12.14697115341153</v>
       </c>
       <c r="K18">
-        <v>13.87726964361513</v>
+        <v>9.513866398814965</v>
       </c>
       <c r="L18">
-        <v>6.195299468044922</v>
+        <v>8.330775379059622</v>
       </c>
       <c r="M18">
-        <v>10.59615697313397</v>
+        <v>15.00184994430114</v>
       </c>
       <c r="N18">
-        <v>13.27196184032061</v>
+        <v>20.89334647052128</v>
       </c>
       <c r="O18">
-        <v>15.13538486848236</v>
+        <v>23.76156958609991</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.16432451293838</v>
+        <v>16.3006368920973</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.892637331797766</v>
+        <v>10.92646255226157</v>
       </c>
       <c r="E19">
-        <v>10.21974351813885</v>
+        <v>17.24411460445469</v>
       </c>
       <c r="F19">
-        <v>21.69683555808252</v>
+        <v>32.67959856550398</v>
       </c>
       <c r="G19">
-        <v>23.95936484593417</v>
+        <v>32.59139834906381</v>
       </c>
       <c r="H19">
-        <v>9.113795527963356</v>
+        <v>15.27953569614498</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.311213217757571</v>
+        <v>12.14863395342327</v>
       </c>
       <c r="K19">
-        <v>13.83025624154845</v>
+        <v>9.491163712304912</v>
       </c>
       <c r="L19">
-        <v>6.174202493107988</v>
+        <v>8.328048357881984</v>
       </c>
       <c r="M19">
-        <v>10.57123901407754</v>
+        <v>14.9987771267414</v>
       </c>
       <c r="N19">
-        <v>13.28711525632345</v>
+        <v>20.89779229706643</v>
       </c>
       <c r="O19">
-        <v>15.13100914620039</v>
+        <v>23.76571397595325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.37012296901333</v>
+        <v>16.34004783294044</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.91826758425184</v>
+        <v>10.92367952404959</v>
       </c>
       <c r="E20">
-        <v>10.18855570803165</v>
+        <v>17.22957650820437</v>
       </c>
       <c r="F20">
-        <v>21.7686461397465</v>
+        <v>32.66061807593148</v>
       </c>
       <c r="G20">
-        <v>24.10734480450185</v>
+        <v>32.5808835289676</v>
       </c>
       <c r="H20">
-        <v>9.104370031621215</v>
+        <v>15.26689688165633</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.289752562770972</v>
+        <v>12.14119712274218</v>
       </c>
       <c r="K20">
-        <v>14.04057163772379</v>
+        <v>9.592805102869319</v>
       </c>
       <c r="L20">
-        <v>6.268585546052615</v>
+        <v>8.340362392108078</v>
       </c>
       <c r="M20">
-        <v>10.6831188122621</v>
+        <v>15.01271174653975</v>
       </c>
       <c r="N20">
-        <v>13.21909157582327</v>
+        <v>20.87789746925361</v>
       </c>
       <c r="O20">
-        <v>15.1514974266846</v>
+        <v>23.74733755480714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.04650972332552</v>
+        <v>16.47468567314179</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.007065195324722</v>
+        <v>10.91588591200976</v>
       </c>
       <c r="E21">
-        <v>10.08768389066501</v>
+        <v>17.18262895156488</v>
       </c>
       <c r="F21">
-        <v>22.02887663032845</v>
+        <v>32.60400732329278</v>
       </c>
       <c r="G21">
-        <v>24.62784886181552</v>
+        <v>32.55501563714181</v>
       </c>
       <c r="H21">
-        <v>9.079164360046914</v>
+        <v>15.22675959815291</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.21893144047637</v>
+        <v>12.11701273446659</v>
       </c>
       <c r="K21">
-        <v>14.72518965977282</v>
+        <v>9.92497955219496</v>
       </c>
       <c r="L21">
-        <v>6.575918972730397</v>
+        <v>8.382453206966483</v>
       </c>
       <c r="M21">
-        <v>11.05428094869458</v>
+        <v>15.06137187536134</v>
       </c>
       <c r="N21">
-        <v>12.99342212837831</v>
+        <v>20.81300722546012</v>
       </c>
       <c r="O21">
-        <v>15.23457979524672</v>
+        <v>23.69038833233897</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.47688370493062</v>
+        <v>16.56422764958502</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.067058135959521</v>
+        <v>10.91194868747761</v>
       </c>
       <c r="E22">
-        <v>10.02472210965931</v>
+        <v>17.15335697889447</v>
       </c>
       <c r="F22">
-        <v>22.21330558895923</v>
+        <v>32.57234650739446</v>
       </c>
       <c r="G22">
-        <v>24.98537248651135</v>
+        <v>32.54516188520844</v>
       </c>
       <c r="H22">
-        <v>9.067699352799266</v>
+        <v>15.2022607059087</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.173581887693878</v>
+        <v>12.10180259346241</v>
       </c>
       <c r="K22">
-        <v>15.15608463318747</v>
+        <v>10.13493169221</v>
       </c>
       <c r="L22">
-        <v>6.769433701618159</v>
+        <v>8.410472053842261</v>
       </c>
       <c r="M22">
-        <v>11.29298785618956</v>
+        <v>15.09451729699904</v>
       </c>
       <c r="N22">
-        <v>12.84799964900543</v>
+        <v>20.77204852777834</v>
       </c>
       <c r="O22">
-        <v>15.29984780344815</v>
+        <v>23.65674274519604</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.24828051189958</v>
+        <v>16.51630273580804</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.034862305551484</v>
+        <v>10.91394452229426</v>
       </c>
       <c r="E23">
-        <v>10.0580517281176</v>
+        <v>17.16885113166412</v>
       </c>
       <c r="F23">
-        <v>22.11354557534612</v>
+        <v>32.58875611173507</v>
       </c>
       <c r="G23">
-        <v>24.79297164904566</v>
+        <v>32.54977575439799</v>
       </c>
       <c r="H23">
-        <v>9.073347685437332</v>
+        <v>15.2151777402272</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.197701488184732</v>
+        <v>12.10986616376143</v>
       </c>
       <c r="K23">
-        <v>14.92762880064973</v>
+        <v>10.02354142530588</v>
       </c>
       <c r="L23">
-        <v>6.666826294489581</v>
+        <v>8.395472792118296</v>
       </c>
       <c r="M23">
-        <v>11.16595991410219</v>
+        <v>15.07670598230806</v>
       </c>
       <c r="N23">
-        <v>12.9254307045713</v>
+        <v>20.79377654033481</v>
       </c>
       <c r="O23">
-        <v>15.26398713901492</v>
+        <v>23.67437290896578</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.35887691660651</v>
+        <v>16.3378749386612</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.916849895862864</v>
+        <v>10.92382648715564</v>
       </c>
       <c r="E24">
-        <v>10.19025377705914</v>
+        <v>17.23036771876123</v>
       </c>
       <c r="F24">
-        <v>21.76463194142199</v>
+        <v>32.66163345595194</v>
       </c>
       <c r="G24">
-        <v>24.09913073367545</v>
+        <v>32.58142537059523</v>
       </c>
       <c r="H24">
-        <v>9.104863802446166</v>
+        <v>15.26758218539514</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.290926198252685</v>
+        <v>12.14160249376597</v>
       </c>
       <c r="K24">
-        <v>14.02910452577492</v>
+        <v>9.587258009958067</v>
       </c>
       <c r="L24">
-        <v>6.263439105506387</v>
+        <v>8.339683403592787</v>
       </c>
       <c r="M24">
-        <v>10.67699182489558</v>
+        <v>15.01193952163833</v>
       </c>
       <c r="N24">
-        <v>13.22281607004759</v>
+        <v>20.87898263496332</v>
       </c>
       <c r="O24">
-        <v>15.15031963197371</v>
+        <v>23.74832867338642</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.35251401785308</v>
+        <v>16.15275356296805</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.798223873481632</v>
+        <v>10.93947629456534</v>
       </c>
       <c r="E25">
-        <v>10.34529211314837</v>
+        <v>17.30280716558086</v>
       </c>
       <c r="F25">
-        <v>21.44836054003044</v>
+        <v>32.76315438211488</v>
       </c>
       <c r="G25">
-        <v>23.42524683862348</v>
+        <v>32.64582438912784</v>
       </c>
       <c r="H25">
-        <v>9.159133933675259</v>
+        <v>15.33155966705655</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.395635855910157</v>
+        <v>12.17840774243448</v>
       </c>
       <c r="K25">
-        <v>12.98988175977047</v>
+        <v>9.087293228025512</v>
       </c>
       <c r="L25">
-        <v>5.797199754308193</v>
+        <v>8.281853075694512</v>
       </c>
       <c r="M25">
-        <v>10.1352322468035</v>
+        <v>14.94803301831235</v>
       </c>
       <c r="N25">
-        <v>13.55298470838344</v>
+        <v>20.97715461742925</v>
       </c>
       <c r="O25">
-        <v>15.0724923376777</v>
+        <v>23.84343449986902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.02346907382236</v>
+        <v>12.57539829386265</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.95531719642747</v>
+        <v>6.718564427744324</v>
       </c>
       <c r="E2">
-        <v>17.36141455613541</v>
+        <v>10.46987937138753</v>
       </c>
       <c r="F2">
-        <v>32.85759418847496</v>
+        <v>21.26507562254999</v>
       </c>
       <c r="G2">
-        <v>32.71920215212118</v>
+        <v>22.99256002557497</v>
       </c>
       <c r="H2">
-        <v>15.38509129843432</v>
+        <v>9.215225808817856</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.20774103681907</v>
+        <v>7.476460052785357</v>
       </c>
       <c r="K2">
-        <v>8.695547329368882</v>
+        <v>12.16598351879563</v>
       </c>
       <c r="L2">
-        <v>8.241448496448983</v>
+        <v>5.468057165134304</v>
       </c>
       <c r="M2">
-        <v>14.90628147891183</v>
+        <v>9.726827627046525</v>
       </c>
       <c r="N2">
-        <v>21.0548770987178</v>
+        <v>13.80476442505038</v>
       </c>
       <c r="O2">
-        <v>23.92663729342057</v>
+        <v>15.05100859624332</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.94057154318303</v>
+        <v>12.02904950275703</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.96875836165673</v>
+        <v>6.669463304736173</v>
       </c>
       <c r="E3">
-        <v>17.40444044114252</v>
+        <v>10.56070673685352</v>
       </c>
       <c r="F3">
-        <v>32.93386660921899</v>
+        <v>21.17054145367457</v>
       </c>
       <c r="G3">
-        <v>32.78507376946699</v>
+        <v>22.73823094962497</v>
       </c>
       <c r="H3">
-        <v>15.42538691167375</v>
+        <v>9.262677696433537</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.22902463626174</v>
+        <v>7.533635232413569</v>
       </c>
       <c r="K3">
-        <v>8.416329389905506</v>
+        <v>11.57215554204481</v>
       </c>
       <c r="L3">
-        <v>8.215499193498864</v>
+        <v>5.265625102267254</v>
       </c>
       <c r="M3">
-        <v>14.88137961979276</v>
+        <v>9.445783798678029</v>
       </c>
       <c r="N3">
-        <v>21.1109693197901</v>
+        <v>13.98109786957657</v>
       </c>
       <c r="O3">
-        <v>23.99123736773323</v>
+        <v>15.05738105387512</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89210916243093</v>
+        <v>11.68506500761279</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.97834967378302</v>
+        <v>6.641746867108786</v>
       </c>
       <c r="E4">
-        <v>17.43249614580302</v>
+        <v>10.61959473731856</v>
       </c>
       <c r="F4">
-        <v>32.98674443285262</v>
+        <v>21.12666422045312</v>
       </c>
       <c r="G4">
-        <v>32.83345956070339</v>
+        <v>22.60089985978054</v>
       </c>
       <c r="H4">
-        <v>15.45211269182258</v>
+        <v>9.296269497282411</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.24278897442126</v>
+        <v>7.569948487768128</v>
       </c>
       <c r="K4">
-        <v>8.238516468244214</v>
+        <v>11.19059361865567</v>
       </c>
       <c r="L4">
-        <v>8.200297823639966</v>
+        <v>5.138390574579685</v>
       </c>
       <c r="M4">
-        <v>14.86779089872029</v>
+        <v>9.271747786152627</v>
       </c>
       <c r="N4">
-        <v>21.14710512716267</v>
+        <v>14.09226898180034</v>
       </c>
       <c r="O4">
-        <v>24.03495031608647</v>
+        <v>15.07113664984705</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.872989244053</v>
+        <v>11.54295223475947</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.98259533587075</v>
+        <v>6.631066343045195</v>
       </c>
       <c r="E5">
-        <v>17.44434176638642</v>
+        <v>10.64437173612219</v>
       </c>
       <c r="F5">
-        <v>33.00981201436617</v>
+        <v>21.11227096198056</v>
       </c>
       <c r="G5">
-        <v>32.85517022022483</v>
+        <v>22.54960324717452</v>
       </c>
       <c r="H5">
-        <v>15.4635029815653</v>
+        <v>9.31105028754509</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.24857358609922</v>
+        <v>7.58505335118952</v>
       </c>
       <c r="K5">
-        <v>8.164521644710772</v>
+        <v>11.03094438571207</v>
       </c>
       <c r="L5">
-        <v>8.194290828911232</v>
+        <v>5.085875355759447</v>
       </c>
       <c r="M5">
-        <v>14.86268523267548</v>
+        <v>9.200558390257763</v>
       </c>
       <c r="N5">
-        <v>21.16225813344377</v>
+        <v>14.13831425442651</v>
       </c>
       <c r="O5">
-        <v>24.05378121486026</v>
+        <v>15.07914483793736</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.86985283377998</v>
+        <v>11.51924414370078</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.98332070249145</v>
+        <v>6.62932999844511</v>
       </c>
       <c r="E6">
-        <v>17.44633367472531</v>
+        <v>10.64853289497903</v>
       </c>
       <c r="F6">
-        <v>33.01373410807165</v>
+        <v>21.11008927013619</v>
       </c>
       <c r="G6">
-        <v>32.85889551773839</v>
+        <v>22.5413650854489</v>
       </c>
       <c r="H6">
-        <v>15.46542449965912</v>
+        <v>9.313569750902143</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.24954473249664</v>
+        <v>7.58758013412699</v>
       </c>
       <c r="K6">
-        <v>8.152144284769635</v>
+        <v>11.00418690690915</v>
       </c>
       <c r="L6">
-        <v>8.193304813555407</v>
+        <v>5.077117302054953</v>
       </c>
       <c r="M6">
-        <v>14.8618636381146</v>
+        <v>9.188724345628993</v>
       </c>
       <c r="N6">
-        <v>21.16480012497393</v>
+        <v>14.14600521944467</v>
       </c>
       <c r="O6">
-        <v>24.05696951272176</v>
+        <v>15.08061757517957</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89184873751158</v>
+        <v>11.6831559718387</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.97840556651689</v>
+        <v>6.641600336483427</v>
       </c>
       <c r="E7">
-        <v>17.43265422780364</v>
+        <v>10.61992573778819</v>
       </c>
       <c r="F7">
-        <v>32.98704937954252</v>
+        <v>21.1264560925863</v>
       </c>
       <c r="G7">
-        <v>32.83374429363049</v>
+        <v>22.60018925980498</v>
       </c>
       <c r="H7">
-        <v>15.45226428301136</v>
+        <v>9.296464452505738</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.24286627634429</v>
+        <v>7.570150950233422</v>
       </c>
       <c r="K7">
-        <v>8.237524667383671</v>
+        <v>11.18845722565441</v>
       </c>
       <c r="L7">
-        <v>8.200216046469629</v>
+        <v>5.137684930648837</v>
       </c>
       <c r="M7">
-        <v>14.8677202881584</v>
+        <v>9.270788647862677</v>
       </c>
       <c r="N7">
-        <v>21.14730775394901</v>
+        <v>14.0928869432371</v>
       </c>
       <c r="O7">
-        <v>24.03520015691135</v>
+        <v>15.07123501894647</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.99439008756526</v>
+        <v>12.3889025812634</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.95967428535277</v>
+        <v>6.701131542383794</v>
       </c>
       <c r="E8">
-        <v>17.3759105291</v>
+        <v>10.50054616446371</v>
       </c>
       <c r="F8">
-        <v>32.88263750761137</v>
+        <v>21.22949627487895</v>
       </c>
       <c r="G8">
-        <v>32.74026466244997</v>
+        <v>22.90092362985808</v>
       </c>
       <c r="H8">
-        <v>15.39857366373769</v>
+        <v>9.230644816014241</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.21493543533012</v>
+        <v>7.495925456860843</v>
       </c>
       <c r="K8">
-        <v>8.600634000427373</v>
+        <v>11.96480480261062</v>
       </c>
       <c r="L8">
-        <v>8.232351604151596</v>
+        <v>5.398910490261327</v>
       </c>
       <c r="M8">
-        <v>14.8973447678994</v>
+        <v>9.630289134916964</v>
       </c>
       <c r="N8">
-        <v>21.07386660933665</v>
+        <v>13.86496960864195</v>
       </c>
       <c r="O8">
-        <v>23.94807093519616</v>
+        <v>15.05111964130306</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.21406816514233</v>
+        <v>13.69744860771006</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.93353555256661</v>
+        <v>6.83700364455654</v>
       </c>
       <c r="E9">
-        <v>17.27758964607088</v>
+        <v>10.29143000434757</v>
       </c>
       <c r="F9">
-        <v>32.72589688318653</v>
+        <v>21.54704285857467</v>
       </c>
       <c r="G9">
-        <v>32.62009325224378</v>
+        <v>23.64232088389574</v>
       </c>
       <c r="H9">
-        <v>15.30901178976371</v>
+        <v>9.138261411647564</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.16566426423333</v>
+        <v>7.359795500889223</v>
       </c>
       <c r="K9">
-        <v>9.259496940457938</v>
+        <v>13.34919057869231</v>
       </c>
       <c r="L9">
-        <v>8.301005715987928</v>
+        <v>5.958365383255608</v>
       </c>
       <c r="M9">
-        <v>14.96874819267278</v>
+        <v>10.31940595210983</v>
       </c>
       <c r="N9">
-        <v>20.9432438158352</v>
+        <v>13.44045799625412</v>
       </c>
       <c r="O9">
-        <v>23.80935028149906</v>
+        <v>15.0929602591084</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.38576059111344</v>
+        <v>14.60414700721222</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.92075283993218</v>
+        <v>6.948210943011455</v>
       </c>
       <c r="E10">
-        <v>17.21319363063759</v>
+        <v>10.15337871843183</v>
       </c>
       <c r="F10">
-        <v>32.64004953890168</v>
+        <v>21.85451979086097</v>
       </c>
       <c r="G10">
-        <v>32.57045182493779</v>
+        <v>24.28158098434526</v>
       </c>
       <c r="H10">
-        <v>15.25277282049056</v>
+        <v>9.094651120265459</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.13278703542827</v>
+        <v>7.265303558575878</v>
       </c>
       <c r="K10">
-        <v>9.70805331768481</v>
+        <v>14.27854636364953</v>
       </c>
       <c r="L10">
-        <v>8.354648766063153</v>
+        <v>6.375398024747085</v>
       </c>
       <c r="M10">
-        <v>15.02905894881387</v>
+        <v>10.8109550682832</v>
       </c>
       <c r="N10">
-        <v>20.85536515964304</v>
+        <v>13.14138862811848</v>
       </c>
       <c r="O10">
-        <v>23.72704835238798</v>
+        <v>15.17752508746574</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.46586882422807</v>
+        <v>15.00335306457501</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.91632344295565</v>
+        <v>7.001196198780718</v>
       </c>
       <c r="E11">
-        <v>17.18558876786279</v>
+        <v>10.09404848754864</v>
       </c>
       <c r="F11">
-        <v>32.6073645187871</v>
+        <v>22.01118190489437</v>
       </c>
       <c r="G11">
-        <v>32.55628079206939</v>
+        <v>24.59310906565633</v>
       </c>
       <c r="H11">
-        <v>15.22925939133684</v>
+        <v>9.080509767309938</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.11854507939742</v>
+        <v>7.223465553568274</v>
       </c>
       <c r="K11">
-        <v>9.903867654680463</v>
+        <v>14.68178908357461</v>
       </c>
       <c r="L11">
-        <v>8.379695537329344</v>
+        <v>6.556431326790475</v>
       </c>
       <c r="M11">
-        <v>15.05813985836389</v>
+        <v>11.03044897639291</v>
       </c>
       <c r="N11">
-        <v>20.81712735329164</v>
+        <v>13.00792308578136</v>
       </c>
       <c r="O11">
-        <v>23.69387028426747</v>
+        <v>15.22856407576433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.49647142257204</v>
+        <v>15.1525246320294</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.91484458133261</v>
+        <v>7.021597270025594</v>
       </c>
       <c r="E12">
-        <v>17.17537753614275</v>
+        <v>10.07208910099553</v>
       </c>
       <c r="F12">
-        <v>32.59590316193403</v>
+        <v>22.07296602381529</v>
       </c>
       <c r="G12">
-        <v>32.55212451298203</v>
+        <v>24.71405482637604</v>
       </c>
       <c r="H12">
-        <v>15.22065273269667</v>
+        <v>9.076010915126387</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.11325420347826</v>
+        <v>7.207783349591808</v>
       </c>
       <c r="K12">
-        <v>9.976795322891725</v>
+        <v>14.83165152151097</v>
       </c>
       <c r="L12">
-        <v>8.389268104690489</v>
+        <v>6.623724988073872</v>
       </c>
       <c r="M12">
-        <v>15.06938308937035</v>
+        <v>11.11290725462782</v>
       </c>
       <c r="N12">
-        <v>20.8028965143047</v>
+        <v>12.95773827656831</v>
       </c>
       <c r="O12">
-        <v>23.68191962121626</v>
+        <v>15.24976805844183</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.48986905186797</v>
+        <v>15.12048807789233</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.91515426725191</v>
+        <v>7.01718869067403</v>
       </c>
       <c r="E13">
-        <v>17.17756595102301</v>
+        <v>10.07679572141621</v>
       </c>
       <c r="F13">
-        <v>32.59833084246052</v>
+        <v>22.05954965863874</v>
       </c>
       <c r="G13">
-        <v>32.55296582791607</v>
+        <v>24.68787474183757</v>
       </c>
       <c r="H13">
-        <v>15.22249310984044</v>
+        <v>9.07694114500206</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.1143891478754</v>
+        <v>7.211153699649363</v>
       </c>
       <c r="K13">
-        <v>9.961144001274013</v>
+        <v>14.79950249849612</v>
       </c>
       <c r="L13">
-        <v>8.387202648434446</v>
+        <v>6.60928826857224</v>
       </c>
       <c r="M13">
-        <v>15.06695148051108</v>
+        <v>11.09517870887726</v>
       </c>
       <c r="N13">
-        <v>20.80595032247434</v>
+        <v>12.96853090968215</v>
       </c>
       <c r="O13">
-        <v>23.68446613548235</v>
+        <v>15.245116861548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.46838128140795</v>
+        <v>15.01566603666741</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.91619780342979</v>
+        <v>7.002867906270689</v>
       </c>
       <c r="E14">
-        <v>17.18474383543263</v>
+        <v>10.09223164820055</v>
       </c>
       <c r="F14">
-        <v>32.60640323316749</v>
+        <v>22.01621538923803</v>
       </c>
       <c r="G14">
-        <v>32.55591460248612</v>
+        <v>24.60299973596273</v>
       </c>
       <c r="H14">
-        <v>15.22854535836003</v>
+        <v>9.080122269561834</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.11810774922413</v>
+        <v>7.222172166959851</v>
       </c>
       <c r="K14">
-        <v>9.909892172340477</v>
+        <v>14.69417534468088</v>
       </c>
       <c r="L14">
-        <v>8.380481344157001</v>
+        <v>6.56199291779008</v>
       </c>
       <c r="M14">
-        <v>15.05906025091609</v>
+        <v>11.03724644271611</v>
       </c>
       <c r="N14">
-        <v>20.81595158933418</v>
+        <v>13.00378731463223</v>
       </c>
       <c r="O14">
-        <v>23.6928748058183</v>
+        <v>15.23027054196989</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.45525359144063</v>
+        <v>14.95119669793057</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.9168628201666</v>
+        <v>6.994139617526711</v>
       </c>
       <c r="E15">
-        <v>17.18917200659821</v>
+        <v>10.10175298622682</v>
       </c>
       <c r="F15">
-        <v>32.61146706307925</v>
+        <v>21.98999345198082</v>
       </c>
       <c r="G15">
-        <v>32.55787838929302</v>
+        <v>24.55139876698422</v>
       </c>
       <c r="H15">
-        <v>15.2322912525512</v>
+        <v>9.082183414187002</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.12039880216958</v>
+        <v>7.228942135325698</v>
       </c>
       <c r="K15">
-        <v>9.878338615402214</v>
+        <v>14.62928927773584</v>
       </c>
       <c r="L15">
-        <v>8.376375655496197</v>
+        <v>6.532858810482306</v>
       </c>
       <c r="M15">
-        <v>15.05425654608491</v>
+        <v>11.00167351706772</v>
       </c>
       <c r="N15">
-        <v>20.82211004948674</v>
+        <v>13.0254287270335</v>
       </c>
       <c r="O15">
-        <v>23.6981052187301</v>
+        <v>15.22142314725851</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.38056388835792</v>
+        <v>14.57778287701433</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.921070125947</v>
+        <v>6.944795791996071</v>
       </c>
       <c r="E16">
-        <v>17.21503159804152</v>
+        <v>10.15732664001168</v>
       </c>
       <c r="F16">
-        <v>32.64231372633123</v>
+        <v>21.84462340368044</v>
       </c>
       <c r="G16">
-        <v>32.57154724561327</v>
+        <v>24.26163884771194</v>
       </c>
       <c r="H16">
-        <v>15.25435110647342</v>
+        <v>9.095693063307653</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.13373211199405</v>
+        <v>7.268060511335171</v>
       </c>
       <c r="K16">
-        <v>9.695087246039339</v>
+        <v>14.25179789839167</v>
       </c>
       <c r="L16">
-        <v>8.353024461795609</v>
+        <v>6.363391351386786</v>
       </c>
       <c r="M16">
-        <v>15.02719107034351</v>
+        <v>10.7965218775696</v>
       </c>
       <c r="N16">
-        <v>20.85789898808529</v>
+        <v>13.15016155707063</v>
       </c>
       <c r="O16">
-        <v>23.72930240135379</v>
+        <v>15.17444846443802</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.33524283900412</v>
+        <v>14.34523885885362</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.92400549597116</v>
+        <v>6.915133305022097</v>
       </c>
       <c r="E17">
-        <v>17.23132771195243</v>
+        <v>10.19231397455837</v>
       </c>
       <c r="F17">
-        <v>32.66286816116692</v>
+        <v>21.75977784608164</v>
       </c>
       <c r="G17">
-        <v>32.58208750204887</v>
+        <v>24.08918923816522</v>
       </c>
       <c r="H17">
-        <v>15.26841407278757</v>
+        <v>9.105465893494314</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.14209424122929</v>
+        <v>7.292349316730673</v>
       </c>
       <c r="K17">
-        <v>9.580529961772086</v>
+        <v>14.01519445884125</v>
       </c>
       <c r="L17">
-        <v>8.33886093261709</v>
+        <v>6.25719632197395</v>
       </c>
       <c r="M17">
-        <v>15.01100470355719</v>
+        <v>10.6695636692158</v>
       </c>
       <c r="N17">
-        <v>20.88029891558946</v>
+        <v>13.22733160712489</v>
       </c>
       <c r="O17">
-        <v>23.74953260972945</v>
+        <v>15.14890032895208</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.30936532097521</v>
+        <v>14.21024240995753</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.92582430485263</v>
+        <v>6.898298310001677</v>
       </c>
       <c r="E18">
-        <v>17.24085984769282</v>
+        <v>10.21276380944346</v>
       </c>
       <c r="F18">
-        <v>32.67528986259555</v>
+        <v>21.71255489655221</v>
       </c>
       <c r="G18">
-        <v>32.58894168874856</v>
+        <v>23.99195241250683</v>
       </c>
       <c r="H18">
-        <v>15.27669757110407</v>
+        <v>9.111620934104364</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.14697115341153</v>
+        <v>7.306427788031683</v>
       </c>
       <c r="K18">
-        <v>9.513866398814965</v>
+        <v>13.87726964361512</v>
       </c>
       <c r="L18">
-        <v>8.330775379059622</v>
+        <v>6.195299468044901</v>
       </c>
       <c r="M18">
-        <v>15.00184994430114</v>
+        <v>10.59615697313397</v>
       </c>
       <c r="N18">
-        <v>20.89334647052128</v>
+        <v>13.27196184032055</v>
       </c>
       <c r="O18">
-        <v>23.76156958609991</v>
+        <v>15.13538486848227</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.3006368920973</v>
+        <v>14.16432451293835</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.92646255226157</v>
+        <v>6.892637331797761</v>
       </c>
       <c r="E19">
-        <v>17.24411460445469</v>
+        <v>10.21974351813886</v>
       </c>
       <c r="F19">
-        <v>32.67959856550398</v>
+        <v>21.69683555808239</v>
       </c>
       <c r="G19">
-        <v>32.59139834906381</v>
+        <v>23.95936484593395</v>
       </c>
       <c r="H19">
-        <v>15.27953569614498</v>
+        <v>9.113795527963351</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.14863395342327</v>
+        <v>7.31121321775754</v>
       </c>
       <c r="K19">
-        <v>9.491163712304912</v>
+        <v>13.83025624154851</v>
       </c>
       <c r="L19">
-        <v>8.328048357881984</v>
+        <v>6.174202493107975</v>
       </c>
       <c r="M19">
-        <v>14.9987771267414</v>
+        <v>10.57123901407751</v>
       </c>
       <c r="N19">
-        <v>20.89779229706643</v>
+        <v>13.28711525632341</v>
       </c>
       <c r="O19">
-        <v>23.76571397595325</v>
+        <v>15.13100914620027</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.34004783294044</v>
+        <v>14.37012296901333</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.92367952404959</v>
+        <v>6.918267584251756</v>
       </c>
       <c r="E20">
-        <v>17.22957650820437</v>
+        <v>10.18855570803165</v>
       </c>
       <c r="F20">
-        <v>32.66061807593148</v>
+        <v>21.76864613974644</v>
       </c>
       <c r="G20">
-        <v>32.5808835289676</v>
+        <v>24.10734480450181</v>
       </c>
       <c r="H20">
-        <v>15.26689688165633</v>
+        <v>9.104370031621208</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.14119712274218</v>
+        <v>7.289752562771007</v>
       </c>
       <c r="K20">
-        <v>9.592805102869319</v>
+        <v>14.04057163772382</v>
       </c>
       <c r="L20">
-        <v>8.340362392108078</v>
+        <v>6.268585546052637</v>
       </c>
       <c r="M20">
-        <v>15.01271174653975</v>
+        <v>10.68311881226208</v>
       </c>
       <c r="N20">
-        <v>20.87789746925361</v>
+        <v>13.2190915758233</v>
       </c>
       <c r="O20">
-        <v>23.74733755480714</v>
+        <v>15.15149742668459</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.47468567314179</v>
+        <v>15.04650972332548</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.91588591200976</v>
+        <v>7.007065195324759</v>
       </c>
       <c r="E21">
-        <v>17.18262895156488</v>
+        <v>10.08768389066501</v>
       </c>
       <c r="F21">
-        <v>32.60400732329278</v>
+        <v>22.0288766303284</v>
       </c>
       <c r="G21">
-        <v>32.55501563714181</v>
+        <v>24.62784886181544</v>
       </c>
       <c r="H21">
-        <v>15.22675959815291</v>
+        <v>9.07916436004686</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.11701273446659</v>
+        <v>7.2189314404763</v>
       </c>
       <c r="K21">
-        <v>9.92497955219496</v>
+        <v>14.72518965977286</v>
       </c>
       <c r="L21">
-        <v>8.382453206966483</v>
+        <v>6.575918972730374</v>
       </c>
       <c r="M21">
-        <v>15.06137187536134</v>
+        <v>11.05428094869457</v>
       </c>
       <c r="N21">
-        <v>20.81300722546012</v>
+        <v>12.99342212837828</v>
       </c>
       <c r="O21">
-        <v>23.69038833233897</v>
+        <v>15.23457979524664</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.56422764958502</v>
+        <v>15.4768837049306</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.91194868747761</v>
+        <v>7.067058135959463</v>
       </c>
       <c r="E22">
-        <v>17.15335697889447</v>
+        <v>10.0247221096592</v>
       </c>
       <c r="F22">
-        <v>32.57234650739446</v>
+        <v>22.21330558895922</v>
       </c>
       <c r="G22">
-        <v>32.54516188520844</v>
+        <v>24.98537248651134</v>
       </c>
       <c r="H22">
-        <v>15.2022607059087</v>
+        <v>9.067699352799272</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.10180259346241</v>
+        <v>7.17358188769381</v>
       </c>
       <c r="K22">
-        <v>10.13493169221</v>
+        <v>15.15608463318744</v>
       </c>
       <c r="L22">
-        <v>8.410472053842261</v>
+        <v>6.769433701618119</v>
       </c>
       <c r="M22">
-        <v>15.09451729699904</v>
+        <v>11.29298785618955</v>
       </c>
       <c r="N22">
-        <v>20.77204852777834</v>
+        <v>12.84799964900539</v>
       </c>
       <c r="O22">
-        <v>23.65674274519604</v>
+        <v>15.29984780344815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.51630273580804</v>
+        <v>15.2482805118996</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.91394452229426</v>
+        <v>7.034862305551474</v>
       </c>
       <c r="E23">
-        <v>17.16885113166412</v>
+        <v>10.05805172811779</v>
       </c>
       <c r="F23">
-        <v>32.58875611173507</v>
+        <v>22.11354557534606</v>
       </c>
       <c r="G23">
-        <v>32.54977575439799</v>
+        <v>24.7929716490455</v>
       </c>
       <c r="H23">
-        <v>15.2151777402272</v>
+        <v>9.073347685437321</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.10986616376143</v>
+        <v>7.197701488184832</v>
       </c>
       <c r="K23">
-        <v>10.02354142530588</v>
+        <v>14.92762880064979</v>
       </c>
       <c r="L23">
-        <v>8.395472792118296</v>
+        <v>6.666826294489551</v>
       </c>
       <c r="M23">
-        <v>15.07670598230806</v>
+        <v>11.16595991410221</v>
       </c>
       <c r="N23">
-        <v>20.79377654033481</v>
+        <v>12.9254307045713</v>
       </c>
       <c r="O23">
-        <v>23.67437290896578</v>
+        <v>15.26398713901483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.3378749386612</v>
+        <v>14.35887691660651</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.92382648715564</v>
+        <v>6.91684989586307</v>
       </c>
       <c r="E24">
-        <v>17.23036771876123</v>
+        <v>10.19025377705927</v>
       </c>
       <c r="F24">
-        <v>32.66163345595194</v>
+        <v>21.76463194142208</v>
       </c>
       <c r="G24">
-        <v>32.58142537059523</v>
+        <v>24.09913073367543</v>
       </c>
       <c r="H24">
-        <v>15.26758218539514</v>
+        <v>9.104863802446177</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.14160249376597</v>
+        <v>7.290926198252685</v>
       </c>
       <c r="K24">
-        <v>9.587258009958067</v>
+        <v>14.02910452577498</v>
       </c>
       <c r="L24">
-        <v>8.339683403592787</v>
+        <v>6.263439105506398</v>
       </c>
       <c r="M24">
-        <v>15.01193952163833</v>
+        <v>10.67699182489561</v>
       </c>
       <c r="N24">
-        <v>20.87898263496332</v>
+        <v>13.22281607004762</v>
       </c>
       <c r="O24">
-        <v>23.74832867338642</v>
+        <v>15.15031963197371</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.15275356296805</v>
+        <v>13.35251401785302</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.93947629456534</v>
+        <v>6.798223873481773</v>
       </c>
       <c r="E25">
-        <v>17.30280716558086</v>
+        <v>10.3452921131485</v>
       </c>
       <c r="F25">
-        <v>32.76315438211488</v>
+        <v>21.44836054003034</v>
       </c>
       <c r="G25">
-        <v>32.64582438912784</v>
+        <v>23.42524683862315</v>
       </c>
       <c r="H25">
-        <v>15.33155966705655</v>
+        <v>9.159133933675205</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.17840774243448</v>
+        <v>7.395635855910157</v>
       </c>
       <c r="K25">
-        <v>9.087293228025512</v>
+        <v>12.98988175977055</v>
       </c>
       <c r="L25">
-        <v>8.281853075694512</v>
+        <v>5.797199754308156</v>
       </c>
       <c r="M25">
-        <v>14.94803301831235</v>
+        <v>10.13523224680348</v>
       </c>
       <c r="N25">
-        <v>20.97715461742925</v>
+        <v>13.55298470838341</v>
       </c>
       <c r="O25">
-        <v>23.84343449986902</v>
+        <v>15.07249233767752</v>
       </c>
     </row>
   </sheetData>
